--- a/biology/Zoologie/Bringé/Bringé.xlsx
+++ b/biology/Zoologie/Bringé/Bringé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bring%C3%A9</t>
+          <t>Bringé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bringé est un type de coloration de pelage qui apparaît sur les mammifères de compagnie et notamment chez le chien. Il s'agit d'une robe avec des rayures discontinues de couleurs différentes que l'on assimile souvent à celle d'un tigre, même si cet animal n'a pas une robe bringée.
 </t>
